--- a/template_sharepoint.xlsx
+++ b/template_sharepoint.xlsx
@@ -382,370 +382,370 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>X</v>
+        <v>col_X</v>
       </c>
       <c r="B1" t="str">
-        <v>Y</v>
+        <v>col_Y</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>*</v>
+        <v>Offshore</v>
       </c>
       <c r="B2" t="str">
-        <v>*</v>
+        <v>2022-02-14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>A</v>
+        <v>col_A</v>
       </c>
       <c r="B5" t="str">
-        <v>B</v>
+        <v>col_B</v>
       </c>
       <c r="C5" t="str">
-        <v>C</v>
+        <v>col_C</v>
       </c>
       <c r="D5" t="str">
-        <v>D</v>
+        <v>col_D</v>
       </c>
       <c r="E5" t="str">
-        <v>E</v>
+        <v>col_E</v>
       </c>
       <c r="F5" t="str">
-        <v>F</v>
+        <v>col_F</v>
       </c>
       <c r="G5" t="str">
-        <v>G</v>
+        <v>col_G</v>
       </c>
       <c r="H5" t="str">
-        <v>H</v>
+        <v>col_H</v>
       </c>
       <c r="I5" t="str">
-        <v>I</v>
+        <v>col_I</v>
       </c>
       <c r="J5" t="str">
-        <v>J</v>
+        <v>col_J</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>*</v>
+        <v>1</v>
       </c>
       <c r="B6" t="str">
-        <v>*</v>
+        <v>11</v>
       </c>
       <c r="C6" t="str">
-        <v>*</v>
+        <v>21</v>
       </c>
       <c r="D6" t="str">
-        <v>*</v>
+        <v>31</v>
       </c>
       <c r="E6" t="str">
-        <v>*</v>
+        <v>41</v>
       </c>
       <c r="F6" t="str">
-        <v>*</v>
+        <v>51</v>
       </c>
       <c r="G6" t="str">
-        <v>*</v>
+        <v>61</v>
       </c>
       <c r="H6" t="str">
-        <v>*</v>
+        <v>71</v>
       </c>
       <c r="I6" t="str">
-        <v>*</v>
+        <v>81</v>
       </c>
       <c r="J6" t="str">
-        <v>*</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>*</v>
+        <v>2</v>
       </c>
       <c r="B7" t="str">
-        <v>*</v>
+        <v>12</v>
       </c>
       <c r="C7" t="str">
-        <v>*</v>
+        <v>22</v>
       </c>
       <c r="D7" t="str">
-        <v>*</v>
+        <v>32</v>
       </c>
       <c r="E7" t="str">
-        <v>*</v>
+        <v>42</v>
       </c>
       <c r="F7" t="str">
-        <v>*</v>
+        <v>52</v>
       </c>
       <c r="G7" t="str">
-        <v>*</v>
+        <v>62</v>
       </c>
       <c r="H7" t="str">
-        <v>*</v>
+        <v>72</v>
       </c>
       <c r="I7" t="str">
-        <v>*</v>
+        <v>82</v>
       </c>
       <c r="J7" t="str">
-        <v>*</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>*</v>
+        <v>3</v>
       </c>
       <c r="B8" t="str">
-        <v>*</v>
+        <v>13</v>
       </c>
       <c r="C8" t="str">
-        <v>*</v>
+        <v>23</v>
       </c>
       <c r="D8" t="str">
-        <v>*</v>
+        <v>33</v>
       </c>
       <c r="E8" t="str">
-        <v>*</v>
+        <v>43</v>
       </c>
       <c r="F8" t="str">
-        <v>*</v>
+        <v>53</v>
       </c>
       <c r="G8" t="str">
-        <v>*</v>
+        <v>63</v>
       </c>
       <c r="H8" t="str">
-        <v>*</v>
+        <v>73</v>
       </c>
       <c r="I8" t="str">
-        <v>*</v>
+        <v>83</v>
       </c>
       <c r="J8" t="str">
-        <v>*</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>*</v>
+        <v>4</v>
       </c>
       <c r="B9" t="str">
-        <v>*</v>
+        <v>14</v>
       </c>
       <c r="C9" t="str">
-        <v>*</v>
+        <v>24</v>
       </c>
       <c r="D9" t="str">
-        <v>*</v>
+        <v>34</v>
       </c>
       <c r="E9" t="str">
-        <v>*</v>
+        <v>44</v>
       </c>
       <c r="F9" t="str">
-        <v>*</v>
+        <v>54</v>
       </c>
       <c r="G9" t="str">
-        <v>*</v>
+        <v>64</v>
       </c>
       <c r="H9" t="str">
-        <v>*</v>
+        <v>74</v>
       </c>
       <c r="I9" t="str">
-        <v>*</v>
+        <v>84</v>
       </c>
       <c r="J9" t="str">
-        <v>*</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>*</v>
+        <v>5</v>
       </c>
       <c r="B10" t="str">
-        <v>*</v>
+        <v>15</v>
       </c>
       <c r="C10" t="str">
-        <v>*</v>
+        <v>25</v>
       </c>
       <c r="D10" t="str">
-        <v>*</v>
+        <v>35</v>
       </c>
       <c r="E10" t="str">
-        <v>*</v>
+        <v>45</v>
       </c>
       <c r="F10" t="str">
-        <v>*</v>
+        <v>55</v>
       </c>
       <c r="G10" t="str">
-        <v>*</v>
+        <v>65</v>
       </c>
       <c r="H10" t="str">
-        <v>*</v>
+        <v>75</v>
       </c>
       <c r="I10" t="str">
-        <v>*</v>
+        <v>85</v>
       </c>
       <c r="J10" t="str">
-        <v>*</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>*</v>
+        <v>6</v>
       </c>
       <c r="B11" t="str">
-        <v>*</v>
+        <v>16</v>
       </c>
       <c r="C11" t="str">
-        <v>*</v>
+        <v>26</v>
       </c>
       <c r="D11" t="str">
-        <v>*</v>
+        <v>36</v>
       </c>
       <c r="E11" t="str">
-        <v>*</v>
+        <v>46</v>
       </c>
       <c r="F11" t="str">
-        <v>*</v>
+        <v>56</v>
       </c>
       <c r="G11" t="str">
-        <v>*</v>
+        <v>66</v>
       </c>
       <c r="H11" t="str">
-        <v>*</v>
+        <v>76</v>
       </c>
       <c r="I11" t="str">
-        <v>*</v>
+        <v>86</v>
       </c>
       <c r="J11" t="str">
-        <v>*</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>*</v>
+        <v>7</v>
       </c>
       <c r="B12" t="str">
-        <v>*</v>
+        <v>17</v>
       </c>
       <c r="C12" t="str">
-        <v>*</v>
+        <v>27</v>
       </c>
       <c r="D12" t="str">
-        <v>*</v>
+        <v>37</v>
       </c>
       <c r="E12" t="str">
-        <v>*</v>
+        <v>47</v>
       </c>
       <c r="F12" t="str">
-        <v>*</v>
+        <v>57</v>
       </c>
       <c r="G12" t="str">
-        <v>*</v>
+        <v>67</v>
       </c>
       <c r="H12" t="str">
-        <v>*</v>
+        <v>77</v>
       </c>
       <c r="I12" t="str">
-        <v>*</v>
+        <v>87</v>
       </c>
       <c r="J12" t="str">
-        <v>*</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>*</v>
+        <v>8</v>
       </c>
       <c r="B13" t="str">
-        <v>*</v>
+        <v>18</v>
       </c>
       <c r="C13" t="str">
-        <v>*</v>
+        <v>28</v>
       </c>
       <c r="D13" t="str">
-        <v>*</v>
+        <v>38</v>
       </c>
       <c r="E13" t="str">
-        <v>*</v>
+        <v>48</v>
       </c>
       <c r="F13" t="str">
-        <v>*</v>
+        <v>58</v>
       </c>
       <c r="G13" t="str">
-        <v>*</v>
+        <v>68</v>
       </c>
       <c r="H13" t="str">
-        <v>*</v>
+        <v>78</v>
       </c>
       <c r="I13" t="str">
-        <v>*</v>
+        <v>88</v>
       </c>
       <c r="J13" t="str">
-        <v>*</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>*</v>
+        <v>9</v>
       </c>
       <c r="B14" t="str">
-        <v>*</v>
+        <v>19</v>
       </c>
       <c r="C14" t="str">
-        <v>*</v>
+        <v>29</v>
       </c>
       <c r="D14" t="str">
-        <v>*</v>
+        <v>39</v>
       </c>
       <c r="E14" t="str">
-        <v>*</v>
+        <v>49</v>
       </c>
       <c r="F14" t="str">
-        <v>*</v>
+        <v>59</v>
       </c>
       <c r="G14" t="str">
-        <v>*</v>
+        <v>69</v>
       </c>
       <c r="H14" t="str">
-        <v>*</v>
+        <v>79</v>
       </c>
       <c r="I14" t="str">
-        <v>*</v>
+        <v>89</v>
       </c>
       <c r="J14" t="str">
-        <v>*</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>*</v>
+        <v>10</v>
       </c>
       <c r="B15" t="str">
-        <v>*</v>
+        <v>20</v>
       </c>
       <c r="C15" t="str">
-        <v>*</v>
+        <v>30</v>
       </c>
       <c r="D15" t="str">
-        <v>*</v>
+        <v>40</v>
       </c>
       <c r="E15" t="str">
-        <v>*</v>
+        <v>50</v>
       </c>
       <c r="F15" t="str">
-        <v>*</v>
+        <v>60</v>
       </c>
       <c r="G15" t="str">
-        <v>*</v>
+        <v>70</v>
       </c>
       <c r="H15" t="str">
-        <v>*</v>
+        <v>80</v>
       </c>
       <c r="I15" t="str">
-        <v>*</v>
+        <v>90</v>
       </c>
       <c r="J15" t="str">
-        <v>*</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
